--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_summer_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_summer_naive/agents.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="526">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>zudPXKaePPOrkXT</t>
+    <t>xsWE5TDAleyb40O</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1580,7 +1580,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_1', 'sfh_11']</t>
+    <t>['sfh_35', 'sfh_12', 'sfh_14', 'sfh_33', 'sfh_2']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1592,7 +1592,7 @@
     <t>['inflexible-load']</t>
   </si>
   <si>
-    <t>inclusive</t>
+    <t>exclusive</t>
   </si>
 </sst>
 </file>
@@ -2835,11 +2835,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2848,7 +2848,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3362,14 +3362,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>328</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3378,7 +3375,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3714,7 +3711,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3765,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3774,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3787,7 +3784,10 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4209,11 +4209,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4663,7 +4663,7 @@
         <v>488</v>
       </c>
       <c r="IN5">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4796,7 +4796,7 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5145,7 +5145,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5218,11 +5218,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5231,7 +5231,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5390,7 +5390,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5672,7 +5672,7 @@
         <v>488</v>
       </c>
       <c r="IN7">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5745,11 +5745,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5758,7 +5758,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6199,7 +6199,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6271,7 +6271,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6311,7 +6311,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
@@ -6483,7 +6483,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6765,7 +6765,7 @@
         <v>488</v>
       </c>
       <c r="IN9">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6865,11 +6865,11 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6878,7 +6878,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7214,7 +7214,7 @@
         <v>488</v>
       </c>
       <c r="IN10">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7287,11 +7287,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7300,7 +7300,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7636,7 +7636,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7709,7 +7709,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8058,7 +8058,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8131,11 +8131,8 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>328</v>
       </c>
       <c r="H13">
         <v>130</v>
@@ -8291,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8483,7 +8480,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8534,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8543,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8556,11 +8553,14 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="F14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8569,7 +8569,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8905,7 +8905,7 @@
         <v>488</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8978,11 +8978,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -8991,7 +8991,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9150,7 +9150,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9478,11 +9478,14 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
+      <c r="F16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9491,7 +9494,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9635,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9827,7 +9830,7 @@
         <v>488</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9878,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9887,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9900,7 +9903,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10072,7 +10075,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10378,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10387,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10400,11 +10403,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>4</v>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10413,7 +10416,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10572,7 +10575,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10854,7 +10857,7 @@
         <v>488</v>
       </c>
       <c r="IN18">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10905,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10914,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10927,11 +10930,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>4</v>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10940,7 +10943,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11099,7 +11102,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11405,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11414,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11427,11 +11430,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11440,7 +11443,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11584,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11827,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11836,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11849,7 +11852,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -12006,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12198,7 +12201,7 @@
         <v>488</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12249,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12258,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12271,7 +12274,7 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
@@ -12428,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12671,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12680,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12693,11 +12696,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>4</v>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12706,7 +12709,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12865,7 +12868,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13204,7 +13207,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13219,7 +13222,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13259,11 +13262,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>4</v>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13272,7 +13275,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13431,7 +13434,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13686,7 +13689,7 @@
         <v>488</v>
       </c>
       <c r="IN24">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13737,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13746,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13759,7 +13762,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -13931,7 +13934,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14186,7 +14189,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14237,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14246,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14259,7 +14262,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14416,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14608,7 +14611,7 @@
         <v>488</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14659,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14668,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14681,7 +14684,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
@@ -14853,7 +14856,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15135,7 +15138,7 @@
         <v>488</v>
       </c>
       <c r="IN27">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15186,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15195,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15208,11 +15211,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>3</v>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15221,7 +15224,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15380,7 +15383,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15719,7 +15722,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15728,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15741,11 +15744,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15754,7 +15757,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -15913,7 +15916,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16141,7 +16144,7 @@
         <v>488</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16198,7 +16201,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16207,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16220,7 +16223,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
@@ -16392,7 +16395,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16674,7 +16677,7 @@
         <v>488</v>
       </c>
       <c r="IN30">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16725,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16734,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16801,7 +16804,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -16973,7 +16976,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17255,7 +17258,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17312,7 +17315,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17321,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17388,11 +17391,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17401,7 +17404,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17560,7 +17563,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17842,7 +17845,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17899,7 +17902,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17914,7 +17917,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17927,7 +17930,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
@@ -18099,7 +18102,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18381,7 +18384,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18432,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18441,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18454,7 +18457,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18626,7 +18629,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18908,7 +18911,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18959,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18968,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19035,11 +19038,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19048,7 +19054,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19192,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19435,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19444,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19457,7 +19463,7 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
@@ -19614,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19806,7 +19812,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19857,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19866,7 +19872,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19879,11 +19885,14 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>4</v>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19892,7 +19901,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20051,7 +20060,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20390,7 +20399,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20405,7 +20414,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20418,11 +20427,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>3</v>
+      <c r="G38">
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20431,7 +20440,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20590,7 +20599,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20872,7 +20881,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20923,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20932,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20945,11 +20954,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -20958,7 +20967,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21117,7 +21126,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21399,7 +21408,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21456,7 +21465,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21465,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21478,7 +21487,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4</v>
       </c>
       <c r="H40">
@@ -21635,7 +21644,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21878,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21887,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21920,7 +21929,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22039,7 +22048,7 @@
         <v>488</v>
       </c>
       <c r="S2">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="T2">
         <v>1</v>
